--- a/CP-SAT/CPSATExam2/target/test-classes/TestData/Result.xlsx
+++ b/CP-SAT/CPSATExam2/target/test-classes/TestData/Result.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
   <si>
     <t>Test 4</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Software Test Team Lead</t>
+  </si>
+  <si>
+    <t>Amdocs</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
   </si>
 </sst>
 </file>
@@ -449,22 +455,89 @@
   <sheetData>
     <row ht="15" r="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="15" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="15" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="15" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="15" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row ht="15" r="2" x14ac:dyDescent="0.35"/>
-    <row ht="15" r="3" x14ac:dyDescent="0.35"/>
-    <row ht="15" r="4" x14ac:dyDescent="0.35"/>
-    <row ht="15" r="5" x14ac:dyDescent="0.35"/>
     <row ht="15" r="6" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
